--- a/biology/Médecine/Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vallée_de_la_Kymi/Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vallée_de_la_Kymi.xlsx
+++ b/biology/Médecine/Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vallée_de_la_Kymi/Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vallée_de_la_Kymi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vall%C3%A9e_de_la_Kymi</t>
+          <t>Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vallée_de_la_Kymi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groupement intercommunal des services hospitaliers et sociaux de la vallée de la Kymi (en finnois : Kymenlaakson sairaanhoito- ja sosiaalipalvelujen kuntayhtymä, sigle Kymsote) est un  district hospitalier de la vallée de la Kymi en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vall%C3%A9e_de_la_Kymi</t>
+          <t>Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vallée_de_la_Kymi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kymsote a été lancé officiellement le 1er janvier 2019. 
-L'objectif du consortium intercommunal est de fournir des soins de santé et des services sociaux spécialisés aux résidents des municipalités membres[1].
+L'objectif du consortium intercommunal est de fournir des soins de santé et des services sociaux spécialisés aux résidents des municipalités membres.
 Kymsote a pour responsabilité d'organiser et de produire des services sociaux et de santé facilement accessibles aux résidents des municipalités membres.
-Kymsote investit dans des services de prévention de haute qualité et rentables[1].
-Kymsote emploie plus de 5 000 professionnels de santé qui sont au service des 170 000 habitants du regroupement de communes[1].
+Kymsote investit dans des services de prévention de haute qualité et rentables.
+Kymsote emploie plus de 5 000 professionnels de santé qui sont au service des 170 000 habitants du regroupement de communes.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vall%C3%A9e_de_la_Kymi</t>
+          <t>Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vallée_de_la_Kymi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La liste des municipalités membres de Kymsote est:
  Hamina
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vall%C3%A9e_de_la_Kymi</t>
+          <t>Groupement_intercommunal_des_services_hospitaliers_et_sociaux_de_la_vallée_de_la_Kymi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +598,14 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les établissements hospitaliers de Kymsote sont:
 Hôpital central de la vallée de la Kymi (Kotka)
 Hôpital psychiatrique de la vallée de la Kymi (Kouvola)
-Centre Ratamo[2].</t>
+Centre Ratamo.</t>
         </is>
       </c>
     </row>
